--- a/commerce_estate/Etagi/data/Supply.xlsx
+++ b/commerce_estate/Etagi/data/Supply.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U253"/>
+  <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>main_photo_ur</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +627,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4c/32/c3f47510545b99224f1945f520312eb27a3f324c.jpeg</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ae/a4/8323dac72c6732c693ada6c169ca8acd6118a4ae.jpeg</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -782,6 +789,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4a/71/94fbe0d084f5d9975b673e2b498e8b019b0b714a.jpeg</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -865,6 +873,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cc/9d/4edccb92702cae823d49f91ead8b70fbe3cc9dcc.jpeg</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -942,6 +951,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c8/a9/388b36bdc25653922c07d12cfe55e7a26c28a9c8.jpeg</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1025,6 +1035,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a7/94/dd21b916a0b8aa6f315548f899db8c3175f194a7.jpeg</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1108,6 +1119,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/07/18/c174dc140e60ea3f14f5dda82ab49b1c64d71807.jpeg</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1187,6 +1199,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/74/14/37cec8d38057c9c9aa77b27edcb226fdfdbe1474.jpeg</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1264,6 +1277,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/21/f4/5834a738e07cf38b54d9a516052eeff4c509f421.jpeg</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1347,6 +1361,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/75/ac/53d63c2dd5657133339f7c4892103cc6ebeeac75.jpeg</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1430,6 +1445,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4b/e9/6dbf97cb06a10e7227cad9c27c6b780dda25e94b.jpeg</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1513,6 +1529,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d5/40/0e39d638fb20fcc4c498a1064b805c9db5f340d5.jpeg</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1596,6 +1613,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d7/20/d21cdc6112d14b87d627e7c824e0c2e794e320d7.jpeg</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1675,6 +1693,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e7/a4/af5658f28029d2b13fdcb140e009a817b1bba4e7.jpeg</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1779,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/da/4e/d5b49cf934e70a638605ecf883482da01a194eda.jpeg</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1837,6 +1857,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b3/16/743768f6bcc3f23c2229357ca06ec3ed750916b3.jpeg</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1922,6 +1943,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/6b/f3/f94394c72e90e07b0857bbb90856b14abdb0f36b.jpeg</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1999,6 +2021,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3a/ad/c87992f7e66902d595cf59f10e59ba9b1d10ad3a.jpeg</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2076,6 +2099,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8f/e3/433f543afd6d814d2b12b1170418e6ad0c77e38f.jpeg</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2161,6 +2185,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/60/c0/35c664571c3aafc3812b6fbd296318f13599c060.jpeg</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2246,6 +2271,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/28/28/8dc84c42d9ebb48da00babb9987c27dff8f22828.jpeg</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2323,6 +2349,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/32/e7/1b09572292c0a62a4436f2ef0a0e2aa596a0e732.jpeg</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2400,6 +2427,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/61/f2/27cdf0cc52abde2c57521cf5ccfd9cf35de8f261.jpeg</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2483,6 +2511,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/94/06/2bf885ac2a7d730ef55b89b8a187ad945a3e0694.jpeg</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2562,6 +2591,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/1f/9a/4d7f3aefe2df730fcebfa26a927a56edf94c9a1f.jpeg</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2639,6 +2669,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/14/aa/8ccf39535dcd5f32538758b4551b5e2b7773aa14.jpeg</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2722,6 +2753,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/76/c8/da61dd5f0925712c53f2e66b3f31a1bac7e8c876.jpeg</t>
         </is>
       </c>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2799,6 +2831,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/56/bd/d6326997f4dbbc2b7d0be0cb8d9ae4d6e581bd56.jpeg</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2884,6 +2917,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/2c/36/61a531e2685a7cf592ab58eea1d67b1b19dc362c.jpeg</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2967,6 +3001,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a9/b4/6eb53f3fd4bb993ad4a077d1dcb1b892625cb4a9.jpeg</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3044,6 +3079,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f3/8a/aee69b7c69459c770a5833f9231d9d7dbfcf8af3.jpeg</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3125,6 +3161,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d5/1b/517bed0a2e9e5bedf999f8207673a1b5dd301bd5.jpeg</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3204,6 +3241,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/21/b7/b9a34f204777d4f8bc7630d71969a7d9dc86b721.jpeg</t>
         </is>
       </c>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3283,6 +3321,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f4/f8/521f2c2b48922e200683f377850bcfd85d38f8f4.jpeg</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3362,6 +3401,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e7/13/391a63429dd4e8f5e39cbb587ea5cc64e7a613e7.jpeg</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3445,6 +3485,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/78/f1/51ce90a0e8e382b3adcbc6f9470387b6ddcdf178.jpeg</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3530,6 +3571,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/db/79/5aba0ed2bc25414aa6fba77a521349b34f2a79db.jpeg</t>
         </is>
       </c>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3607,6 +3649,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/6e/19/3e7eba635deacf8a2a1b803de64f8e2a4c09196e.jpeg</t>
         </is>
       </c>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3690,6 +3733,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f2/fb/35821fc0424a3e4263cdcc5dac057bb9eb50fbf2.jpeg</t>
         </is>
       </c>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3767,6 +3811,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/81/a3/aa0cd841308bca404ef52b0a038a2c781387a381.jpeg</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3844,6 +3889,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c6/75/80e3bf5086c929f8fdc5bd6b5c211869ba9d75c6.jpeg</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3923,6 +3969,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/67/cb/594e8590d11a11dac94e9925e23bfe5667e8cb67.jpeg</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4000,6 +4047,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/91/3f/6b943936b4589e8550a7e3a0b537d920d3e43f91.jpeg</t>
         </is>
       </c>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4083,6 +4131,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/33/a0/5dcd51a3d1cff757936b514315f983d21ad6a033.jpeg</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4160,6 +4209,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/83/e3/50536a32a4249bfab4ce8d361b16bf4ea000e383.jpeg</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4237,6 +4287,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c8/fe/2b02db7cce6682bdd05c9cdd9a3fae96b197fec8.jpeg</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4320,6 +4371,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/df/be/8c3b9be82b6300d5ad3c51e4a12861b4326abedf.jpeg</t>
         </is>
       </c>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4405,6 +4457,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/87/90/d3e6f0a846d15b63fb1e5e2f5bdf686c48c69087.jpeg</t>
         </is>
       </c>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4484,6 +4537,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cd/32/4e0bd8d36736958c9ed50825334a28b952b632cd.jpeg</t>
         </is>
       </c>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4567,6 +4621,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/43/bc/15cb1d739cda0df1fa6c1f3a7e31e83c595dbc43.jpeg</t>
         </is>
       </c>
+      <c r="V51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4644,6 +4699,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/2c/32/9adad7ac2c32a05366e677e858bbe03ad0dd322c.jpeg</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4721,6 +4777,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/6a/d9/d74e2d4d82f85c8de542dc51e6ba61d5c5b6d96a.jpeg</t>
         </is>
       </c>
+      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4800,6 +4857,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/89/24/8d8decfcee78fbf0007d906e5a16483c2b372489.jpeg</t>
         </is>
       </c>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4883,6 +4941,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/52/b9/5e204a57168b9a7a5d138edeea26a974c622b952.jpeg</t>
         </is>
       </c>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4966,6 +5025,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/16/53/69e28b43ce8322ce68e93ec8d2d03a1aff445316.jpeg</t>
         </is>
       </c>
+      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5051,6 +5111,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/37/98/eb45b88377337b9413f8c4ad5a83710c0bb69837.jpeg</t>
         </is>
       </c>
+      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5128,6 +5189,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/06/7d/1f69e2b4f5d6f651ef16cdd4fbb832806a487d06.jpeg</t>
         </is>
       </c>
+      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5205,6 +5267,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7f/53/207e7f0a1b65a12c18c2afbd022655ce0766537f.jpeg</t>
         </is>
       </c>
+      <c r="V59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5282,6 +5345,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ee/6a/9b9fcfad31a627c685ad314e8668ad5598376aee.jpeg</t>
         </is>
       </c>
+      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5359,6 +5423,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/11/37/c0d455576795ef42b976ddb7761272269e903711.jpeg</t>
         </is>
       </c>
+      <c r="V61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5442,6 +5507,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/16/bd/264c39723bfc1697f306910bc873ef3c7cd0bd16.jpeg</t>
         </is>
       </c>
+      <c r="V62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5517,6 +5583,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/04/7a/ea0bdf3ba10412b95da1646537aa2946070e7a04.jpeg</t>
         </is>
       </c>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5590,6 +5657,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d7/62/7978f4a9f00465e62a6494bbe0abeabce48b62d7.jpeg</t>
         </is>
       </c>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5669,6 +5737,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/05/8a/47687a66e29b8685e26f8a06771b4368f27f8a05.jpeg</t>
         </is>
       </c>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5746,6 +5815,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/40/2e/f2ea898dcf56fd5e1c6281db20604025bd132e40.jpeg</t>
         </is>
       </c>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5829,6 +5899,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f5/31/b177c6e821acec3ff9402634a5e208a645ec31f5.jpeg</t>
         </is>
       </c>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5908,6 +5979,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/bc/c3/8ae6b758b23f67ea7572a9e05d91b8c99ba0c3bc.jpeg</t>
         </is>
       </c>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5985,6 +6057,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/30/cd/95fe7a9495dbea860a66a71a67374e574278cd30.jpeg</t>
         </is>
       </c>
+      <c r="V69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6064,6 +6137,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3e/50/eeafa03c965773796d86ff590ee933542b69503e.jpeg</t>
         </is>
       </c>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6143,6 +6217,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/31/03/693223fafefd4688770d7073969101b09f430331.jpeg</t>
         </is>
       </c>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6220,6 +6295,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/2b/45/031d38683f3e2bc7b9363b5e4160f0e9461f452b.jpeg</t>
         </is>
       </c>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6305,6 +6381,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/6d/9b/af780cac00f246e39715c4e3446e4065c4ac9b6d.jpeg</t>
         </is>
       </c>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6388,6 +6465,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/1b/25/94695b0814d010ea774bb6468d1529708eaa251b.jpeg</t>
         </is>
       </c>
+      <c r="V74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6473,6 +6551,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d8/a8/cdc09e6a765443f44212f8123d62c67c704ea8d8.jpeg</t>
         </is>
       </c>
+      <c r="V75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6556,6 +6635,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/17/07/581715c359e8fe7eba5af82d7385e02c9fe50717.jpeg</t>
         </is>
       </c>
+      <c r="V76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6639,6 +6719,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d3/72/8d6949e6735dd65f6b45a0354dede0af929272d3.jpeg</t>
         </is>
       </c>
+      <c r="V77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6716,6 +6797,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c4/7a/1f60f9472890e6b63e2db980baef85c7845a7ac4.jpeg</t>
         </is>
       </c>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6793,6 +6875,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a6/c0/f1698aea95130816cc3039b20cc4e44cf862c0a6.jpeg</t>
         </is>
       </c>
+      <c r="V79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6868,6 +6951,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cb/8b/bca7e6af00e8eb4bed204f813cc8a0b0de098bcb.jpeg</t>
         </is>
       </c>
+      <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6945,6 +7029,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e4/83/b5832aeb6f136def7256b8f5b2448bb5707d83e4.jpeg</t>
         </is>
       </c>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7022,6 +7107,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/9e/d6/2cb13fc0bbacf6168b09fc27b089d6945dd6d69e.jpeg</t>
         </is>
       </c>
+      <c r="V82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7099,6 +7185,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a5/66/7f28ded6667c242f702538e39936d2001d2e66a5.jpeg</t>
         </is>
       </c>
+      <c r="V83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7176,6 +7263,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d6/42/899198c92141134d4f750e7c321d2da3f7ea42d6.jpeg</t>
         </is>
       </c>
+      <c r="V84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7253,6 +7341,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/5a/f9/7bc67ac3750643e98c6a5248adc72968fff3f95a.jpeg</t>
         </is>
       </c>
+      <c r="V85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7330,6 +7419,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7e/68/9665eba9bd5720583f78cf3b3c5594801451687e.jpeg</t>
         </is>
       </c>
+      <c r="V86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7415,6 +7505,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c0/20/8be874ff67d7138c555724288654b2cf38a120c0.jpeg</t>
         </is>
       </c>
+      <c r="V87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7492,6 +7583,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ed/9b/f280084f9291f1f73f30d057b9d3be98819a9bed.jpeg</t>
         </is>
       </c>
+      <c r="V88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7569,6 +7661,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7c/47/905730e8a234c552fc0f106c67548694984b477c.jpeg</t>
         </is>
       </c>
+      <c r="V89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7646,6 +7739,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b8/63/dcd71f2c27fcd3d7cd474a3fdb03cad6c7e863b8.jpeg</t>
         </is>
       </c>
+      <c r="V90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7723,6 +7817,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/1a/26/c3f82ef7b76262d4386bbbb46c9e206c239c261a.png</t>
         </is>
       </c>
+      <c r="V91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7806,6 +7901,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/33/c4/a678ca1fd4d6f8aed6bbf5950db16624968dc433.jpeg</t>
         </is>
       </c>
+      <c r="V92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7889,6 +7985,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/56/b0/b3cc809a6afee0a754bfe49678ac0be08ceeb056.jpeg</t>
         </is>
       </c>
+      <c r="V93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7966,6 +8063,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4f/3c/4baa86d161614518d8158c2b0347b7d43dc23c4f.jpeg</t>
         </is>
       </c>
+      <c r="V94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8043,6 +8141,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/92/95/47c7b0640eb6dbb8d40ee740914864b8419d9592.jpeg</t>
         </is>
       </c>
+      <c r="V95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8114,6 +8213,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/03/a3/3f078f9cdcd6e5a0750d00581c73db20bae9a303.jpeg</t>
         </is>
       </c>
+      <c r="V96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8191,6 +8291,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/bf/4a/14df842a91fb1b8b05dcecc983247f967cde4abf.jpeg</t>
         </is>
       </c>
+      <c r="V97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8268,6 +8369,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/5a/ae/f736bac7ec5f488b35ae12a52bde4b10d2a9ae5a.jpeg</t>
         </is>
       </c>
+      <c r="V98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8345,6 +8447,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/40/84/90c09ff950e5d31215915e76400f6c36d3fb8440.jpeg</t>
         </is>
       </c>
+      <c r="V99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8422,6 +8525,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/49/f1/855961e8d16c6e00db6df626fe3f47500203f149.jpeg</t>
         </is>
       </c>
+      <c r="V100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8499,6 +8603,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c9/0d/c3112c40126539bc07a3f515c5bb0bf5f48d0dc9.jpeg</t>
         </is>
       </c>
+      <c r="V101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8576,6 +8681,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/bb/60/1d035e5815a56b7b1a66466f682b3605a74260bb.jpeg</t>
         </is>
       </c>
+      <c r="V102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8653,6 +8759,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/bb/fc/b1d0fcceecb07f322cd7bdc3704f1397e5c5fcbb.jpeg</t>
         </is>
       </c>
+      <c r="V103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -8736,6 +8843,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ff/f1/aa870b12c88cb216ac6bdc48d3c3da40e199f1ff.jpeg</t>
         </is>
       </c>
+      <c r="V104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8813,6 +8921,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/2f/e0/6e3bfb8ca91bbe69c5eb5f5aae75ca5df510e02f.jpeg</t>
         </is>
       </c>
+      <c r="V105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8896,6 +9005,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/81/46/9b9fb8284f94cacb5cabc3ad851ef639273b4681.jpeg</t>
         </is>
       </c>
+      <c r="V106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8979,6 +9089,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7f/bc/d73974abb60bc6ce697053a8f0dfe24d81c3bc7f.jpeg</t>
         </is>
       </c>
+      <c r="V107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9056,6 +9167,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c7/1c/bb6f5cf8d872811b50d7f1d999db5348cd0a1cc7.jpeg</t>
         </is>
       </c>
+      <c r="V108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9133,6 +9245,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/27/60/44514bd3ecfeabd5bb581ae7e10e18db01176027.jpeg</t>
         </is>
       </c>
+      <c r="V109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9210,6 +9323,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/28/d0/c9c7b4e9bb178f7ed7220afe0019a63e1114d028.jpeg</t>
         </is>
       </c>
+      <c r="V110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9287,6 +9401,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7f/81/3088d43304f1bbe6c66cffbde63a5ffdf677817f.jpeg</t>
         </is>
       </c>
+      <c r="V111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -9364,6 +9479,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b2/bc/a662afce4ac1014d470ed08da52f0c9e8bf5bcb2.jpeg</t>
         </is>
       </c>
+      <c r="V112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -9441,6 +9557,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f2/9d/08421eb2660ddf46a397f086784afa1b9ccc9df2.jpeg</t>
         </is>
       </c>
+      <c r="V113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -9524,6 +9641,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8e/aa/790f35d638cb9edb3a5a47bdf3ee404c8ad9aa8e.jpeg</t>
         </is>
       </c>
+      <c r="V114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -9601,6 +9719,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/bc/68/dc08380ced75ba4ba94d02303d69957236b068bc.jpeg</t>
         </is>
       </c>
+      <c r="V115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -9678,6 +9797,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c9/8a/af67576a274f097ef7a512d98a38cc44cb548ac9.jpeg</t>
         </is>
       </c>
+      <c r="V116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -9761,6 +9881,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/10/15/7d025a765f55211770f1111e1a44c07402c71510.jpeg</t>
         </is>
       </c>
+      <c r="V117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -9836,6 +9957,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ff/f2/3c67641bd4e2391a37bbe4e4cdd5f6baf79ff2ff.jpeg</t>
         </is>
       </c>
+      <c r="V118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -9919,6 +10041,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a3/63/6f7d339437fcea3c65eefab4414ed68077e463a3.jpeg</t>
         </is>
       </c>
+      <c r="V119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9996,6 +10119,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3c/31/1526dffe635629519e35d599d21d1f5d9471313c.jpeg</t>
         </is>
       </c>
+      <c r="V120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10073,6 +10197,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a9/92/b61f79ca9f5d922e2c5842ad002343ec0d2492a9.jpeg</t>
         </is>
       </c>
+      <c r="V121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -10156,6 +10281,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/24/6d/d4cde1b1b67f703f938fa73f2842c685dc1f6d24.jpeg</t>
         </is>
       </c>
+      <c r="V122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10233,6 +10359,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a8/bf/303a6b4ba52dac073b1f090187896e73daf7bfa8.jpeg</t>
         </is>
       </c>
+      <c r="V123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -10310,6 +10437,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/51/71/17f63f9ef0fcb8e2f40539806375ea0837937151.jpeg</t>
         </is>
       </c>
+      <c r="V124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -10387,6 +10515,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/01/da/8829b84d117e02717e48fba364638978fedada01.jpeg</t>
         </is>
       </c>
+      <c r="V125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -10464,6 +10593,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b1/cc/b2e103f6a29074c3ffea74edaf2ccc008fa6ccb1.jpeg</t>
         </is>
       </c>
+      <c r="V126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -10541,6 +10671,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d3/30/62da12504e5588957ff134c0749242c0258330d3.jpeg</t>
         </is>
       </c>
+      <c r="V127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -10618,6 +10749,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7e/88/30b1103a8bb87782d2f1c580b96e5c2cdfb3887e.jpeg</t>
         </is>
       </c>
+      <c r="V128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -10695,6 +10827,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/85/a9/0652aa1dd128c743cef41e9d4aa6f9abc342a985.jpeg</t>
         </is>
       </c>
+      <c r="V129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -10772,6 +10905,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cf/42/5d951282113cbd161e4362903206a03f48a142cf.jpeg</t>
         </is>
       </c>
+      <c r="V130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -10849,6 +10983,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cd/d1/bb3ef91287923896c1b5c6236da703e3d505d1cd.jpeg</t>
         </is>
       </c>
+      <c r="V131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -10926,6 +11061,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/74/22/7b2254f8ef5c8e991fa5138763d4ff9063ec2274.jpeg</t>
         </is>
       </c>
+      <c r="V132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11003,6 +11139,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a6/bf/a34f7b06c9d248b8babb4834fdc4cb105f25bfa6.jpeg</t>
         </is>
       </c>
+      <c r="V133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11080,6 +11217,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3b/b6/af6ad50de4a7f97304fa3c31aa9680b081cfb63b.jpeg</t>
         </is>
       </c>
+      <c r="V134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11163,6 +11301,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/20/a1/d04ea600d7de13d6e8a7d9b1af57bba9bec4a120.jpeg</t>
         </is>
       </c>
+      <c r="V135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -11246,6 +11385,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/68/77/f1fcf448263906db210e9829a64fb15684537768.jpeg</t>
         </is>
       </c>
+      <c r="V136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -11323,6 +11463,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/94/f6/7381c56c3466e02766f99a528f195a21a6adf694.jpeg</t>
         </is>
       </c>
+      <c r="V137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11400,6 +11541,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/74/5a/239785f720cea822d41b4561ac4ab95065775a74.jpeg</t>
         </is>
       </c>
+      <c r="V138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11483,6 +11625,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b5/71/834935f74db22670b453d82473c5568a44df71b5.jpeg</t>
         </is>
       </c>
+      <c r="V139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -11560,6 +11703,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/9b/c1/a691f80a532d2f61851db24b127ccf3f2ca2c19b.jpeg</t>
         </is>
       </c>
+      <c r="V140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -11637,6 +11781,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/79/40/8bc1e86bcc75e4696347d34716af0779e3c04079.jpeg</t>
         </is>
       </c>
+      <c r="V141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -11714,6 +11859,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/1d/11/e08e532286c5e7c85e4d732d5947e1e07f52111d.jpeg</t>
         </is>
       </c>
+      <c r="V142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -11789,6 +11935,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/05/6e/1e51eb25f01e7b2fe8fcd9394ec3c338fa756e05.jpeg</t>
         </is>
       </c>
+      <c r="V143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -11866,6 +12013,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ce/c5/d6ca2b3b0aa885db2bbcf0ec30ef1ea924c5c5ce.jpeg</t>
         </is>
       </c>
+      <c r="V144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -11949,6 +12097,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3a/65/4b61c2b65cd4d32fd72191f01f3a4d27cd82653a.jpeg</t>
         </is>
       </c>
+      <c r="V145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12026,6 +12175,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/80/ac/cb3f0bc6edad35c756d4dcec1c0cc7098717ac80.jpeg</t>
         </is>
       </c>
+      <c r="V146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12103,6 +12253,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8e/59/0aab4eb4ad896ee23621461ac7e08a417517598e.jpeg</t>
         </is>
       </c>
+      <c r="V147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -12180,6 +12331,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c3/d7/a2e3f6995f875e5c160f72266eea3c3d8310d7c3.jpeg</t>
         </is>
       </c>
+      <c r="V148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -12257,6 +12409,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/90/2b/3cc393df7f230e2e62462c5bfaa095d299af2b90.jpeg</t>
         </is>
       </c>
+      <c r="V149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -12334,6 +12487,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/fc/8f/b1b91988d7d90a40f685ce5b645570874b0f8ffc.jpeg</t>
         </is>
       </c>
+      <c r="V150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -12417,6 +12571,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ef/e3/017ad1d9d0d6cda3215adaea311354a29547e3ef.jpeg</t>
         </is>
       </c>
+      <c r="V151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -12494,6 +12649,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/0a/f7/f8431473d9f8e5b78dbff2dc3c2b8a4b36c7f70a.jpeg</t>
         </is>
       </c>
+      <c r="V152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -12571,6 +12727,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/fe/a3/16d162fa35d5a294457701440198cbc28b06a3fe.jpeg</t>
         </is>
       </c>
+      <c r="V153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -12654,6 +12811,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f0/f5/21e098e0ffeae81c7c18cbf8fdc6d7623748f5f0.jpeg</t>
         </is>
       </c>
+      <c r="V154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -12737,6 +12895,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7d/b5/ceab9c312d45115edf0b9132344215fc1dcfb57d.jpeg</t>
         </is>
       </c>
+      <c r="V155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -12820,6 +12979,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/63/c1/7011fc7addf10daf0bcad14c798bc45fb784c163.jpeg</t>
         </is>
       </c>
+      <c r="V156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -12897,6 +13057,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/33/eb/d9f7e5e052643a1cebd668f78150f7f1bda2eb33.jpeg</t>
         </is>
       </c>
+      <c r="V157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12974,6 +13135,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e3/84/3d7f556efceef2f0c26600c9a43f57e7556e84e3.jpeg</t>
         </is>
       </c>
+      <c r="V158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13051,6 +13213,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3b/22/0b7f27ae53e8584010ea8d196704ae1ff697223b.png</t>
         </is>
       </c>
+      <c r="V159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -13128,6 +13291,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/61/af/665c4b920123e42c77af94525cd0f343824baf61.jpeg</t>
         </is>
       </c>
+      <c r="V160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -13205,6 +13369,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/5f/24/58c952b0c6db15454b1ffb735f109affd204245f.jpeg</t>
         </is>
       </c>
+      <c r="V161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -13288,6 +13453,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/57/4c/405fd2e2efffcbf57641af1b71b1520716244c57.jpeg</t>
         </is>
       </c>
+      <c r="V162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -13365,6 +13531,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8c/4c/0947767b25da4ee73a94ec1394e7b97c87874c8c.jpeg</t>
         </is>
       </c>
+      <c r="V163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -13442,6 +13609,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ff/2b/d264f72bfac3a887112251f8676e2b6cf0062bff.jpeg</t>
         </is>
       </c>
+      <c r="V164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -13519,6 +13687,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/00/6a/e1d156d78a05d7673603156a8d6604c4c41d6a00.jpeg</t>
         </is>
       </c>
+      <c r="V165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -13596,6 +13765,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d8/4b/a404c4ca0482deec6dae8a0e91c5067eb93c4bd8.jpeg</t>
         </is>
       </c>
+      <c r="V166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -13673,6 +13843,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/52/f1/51537cc4e9fb075f521d183cd049102d3ea7f152.png</t>
         </is>
       </c>
+      <c r="V167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -13750,6 +13921,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e9/06/2744b99cf7a1160d4fc46ce85b1b705645f706e9.jpeg</t>
         </is>
       </c>
+      <c r="V168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -13827,6 +13999,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c4/99/9a075b1287dd70ab9109dfb0fa572f4ceefa99c4.jpeg</t>
         </is>
       </c>
+      <c r="V169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -13904,6 +14077,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/9e/21/6281d33ea73f1548d8e5e939d780d8a9a58c219e.jpeg</t>
         </is>
       </c>
+      <c r="V170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -13981,6 +14155,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/49/c2/bc64eaa6bb0ba8695d7030d974f7234d341ac249.jpeg</t>
         </is>
       </c>
+      <c r="V171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -14054,6 +14229,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/16/0c/bdb4baa11fcae96713026fe419b689b9a12b0c16.jpeg</t>
         </is>
       </c>
+      <c r="V172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -14131,6 +14307,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/9e/3f/034c38ec2fb3f01b8fba4263a5df1fd8344d3f9e.jpeg</t>
         </is>
       </c>
+      <c r="V173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -14208,6 +14385,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/aa/01/de265c376be55a3d7497cfe8064c2fd126e401aa.jpeg</t>
         </is>
       </c>
+      <c r="V174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -14285,6 +14463,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/92/16/36b572774411b7742e348285112e8119af621692.jpeg</t>
         </is>
       </c>
+      <c r="V175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -14368,6 +14547,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cb/d8/644c748bfb6905b54c15b2f5359c7e153c52d8cb.jpeg</t>
         </is>
       </c>
+      <c r="V176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -14451,6 +14631,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/05/c2/2a00d868808c61749c8683d4309f913c118bc205.jpeg</t>
         </is>
       </c>
+      <c r="V177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -14534,6 +14715,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/30/63/72e56dc3d039996002deb721b9ee39d8f7226330.jpeg</t>
         </is>
       </c>
+      <c r="V178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -14611,6 +14793,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/88/26/20038a5ec32c26c9ebd782a9b34060269d5e2688.jpeg</t>
         </is>
       </c>
+      <c r="V179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -14688,6 +14871,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/2b/d3/955d7cdf4558f42e2033c014859212abb390d32b.jpeg</t>
         </is>
       </c>
+      <c r="V180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -14771,6 +14955,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/23/52/0622e9b2f866484aa1951061d5d981ce84675223.jpeg</t>
         </is>
       </c>
+      <c r="V181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -14854,6 +15039,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/44/d3/c3a8041f44625ee4e3811dc27cc96f4ed325d344.jpeg</t>
         </is>
       </c>
+      <c r="V182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -14931,6 +15117,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/78/4d/e815299aa2db03c06e0cb35bd6abd53413494d78.jpeg</t>
         </is>
       </c>
+      <c r="V183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -15014,6 +15201,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/26/23/4e7ec5b646354e626a0ecbc4ce5bab43d0a62326.jpeg</t>
         </is>
       </c>
+      <c r="V184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -15097,6 +15285,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/0a/a9/39b30448bba3e5f98fbde25a849fd7644f58a90a.jpeg</t>
         </is>
       </c>
+      <c r="V185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -15174,6 +15363,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/15/30/934367708980e58c1dde0fa5b1e18061bb643015.jpeg</t>
         </is>
       </c>
+      <c r="V186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -15251,6 +15441,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/42/ba/c1b787f86bab9e7ba1ad17e2dac70342c19dba42.jpeg</t>
         </is>
       </c>
+      <c r="V187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -15328,6 +15519,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4c/66/5bb95819feace9d71934800e25f0d761c299664c.jpeg</t>
         </is>
       </c>
+      <c r="V188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -15405,6 +15597,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/model/29/99/690e521c9ca543d90535d1eb1f1620d596d49929.jpeg</t>
         </is>
       </c>
+      <c r="V189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -15482,6 +15675,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/5d/17/a47b2f97133f759ed73019f6f6b54ca454e5175d.jpeg</t>
         </is>
       </c>
+      <c r="V190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -15559,6 +15753,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3a/73/15241c85b2245cb28d8b4663f8db4b5dbe1a733a.jpeg</t>
         </is>
       </c>
+      <c r="V191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -15636,6 +15831,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3b/bb/8a3c1fab89a8fe004ac33cabdc2d65bf2700bb3b.jpeg</t>
         </is>
       </c>
+      <c r="V192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -15713,6 +15909,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/dd/24/85050647a82544ac39eb16c3b1e75df3cb9024dd.png</t>
         </is>
       </c>
+      <c r="V193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -15790,6 +15987,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/cd/23/db3fd6306456c3032ecbcbd8d6799bec00e623cd.jpeg</t>
         </is>
       </c>
+      <c r="V194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -15873,6 +16071,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/84/fd/23562c59c6ca2e3f8b4bb31443d18600fb62fd84.jpeg</t>
         </is>
       </c>
+      <c r="V195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -15956,6 +16155,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/7a/8c/cc4434ad465ff324e237033b27ecbcd6d3ac8c7a.jpeg</t>
         </is>
       </c>
+      <c r="V196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -16033,6 +16233,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/00/25/7f0178aaf3555d233a904cb7bcca330c59a12500.png</t>
         </is>
       </c>
+      <c r="V197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -16110,6 +16311,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/12/6d/d8ead69c4301c7ff6bc66b3bb78c49c1dcd26d12.jpeg</t>
         </is>
       </c>
+      <c r="V198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -16187,6 +16389,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/48/7d/5bbf3450e48dbfaec0d3ee90641fc96f90a37d48.jpeg</t>
         </is>
       </c>
+      <c r="V199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -16264,6 +16467,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/26/4d/442fb19a462d1ff88c537c7774ef56bdfa2c4d26.jpeg</t>
         </is>
       </c>
+      <c r="V200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -16341,6 +16545,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/0e/90/cb6f03ce231fef5dfe1c68773d495f2d2492900e.png</t>
         </is>
       </c>
+      <c r="V201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -16424,6 +16629,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3f/77/b18795ae67274eccef177cb860462ba5d374773f.png</t>
         </is>
       </c>
+      <c r="V202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -16507,6 +16713,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/43/ca/633beda9cab048cf47f39bdcfdebc40bf57aca43.png</t>
         </is>
       </c>
+      <c r="V203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -16590,6 +16797,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3d/09/cec407989104b6ded78315bfa9b102003b56093d.png</t>
         </is>
       </c>
+      <c r="V204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -16673,6 +16881,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e9/80/89e99127f88bcfc6c2bf62008529122efb6180e9.png</t>
         </is>
       </c>
+      <c r="V205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -16756,6 +16965,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c5/b4/6f9337601f43f6d2efce8e3124af7be35e1db4c5.png</t>
         </is>
       </c>
+      <c r="V206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -16833,6 +17043,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/9d/14/4074cbc580fd03bb56541f8fc48d8bc45a4d149d.jpeg</t>
         </is>
       </c>
+      <c r="V207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -16910,6 +17121,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b5/ff/e1eddbf7aedf0a6aa353167f983c8f84999dffb5.png</t>
         </is>
       </c>
+      <c r="V208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -16987,6 +17199,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b3/a7/ca6273000ad6fa51f4a300732c95d44b7a20a7b3.jpeg</t>
         </is>
       </c>
+      <c r="V209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -17064,6 +17277,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/60/9d/e7bf1db88276955898b9352debe6b4ac86d89d60.jpeg</t>
         </is>
       </c>
+      <c r="V210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -17141,6 +17355,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ed/94/9b808139457ac04aeba7d885e253d67e230594ed.jpeg</t>
         </is>
       </c>
+      <c r="V211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -17218,6 +17433,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/40/8c/08b2fa052a5451b8a0da2aaef37ee098bdce8c40.png</t>
         </is>
       </c>
+      <c r="V212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -17295,6 +17511,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/49/05/0d9ab7dfa7db960d0d4b47a28ff7196ae9480549.jpeg</t>
         </is>
       </c>
+      <c r="V213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -17372,6 +17589,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c6/74/041e8a122534cf4a8c00a52242e030ee235174c6.jpeg</t>
         </is>
       </c>
+      <c r="V214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -17455,6 +17673,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ae/ea/abbecdf26459383195117248d34bc5898956eaae.jpeg</t>
         </is>
       </c>
+      <c r="V215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -17532,6 +17751,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/82/f5/3cb5703ef108d84a94cf231c52304b614156f582.jpeg</t>
         </is>
       </c>
+      <c r="V216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -17615,6 +17835,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ce/b9/a2d9e7e4db60c4aebac1b233c249b4ffc5c8b9ce.jpeg</t>
         </is>
       </c>
+      <c r="V217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -17698,6 +17919,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a0/bc/2e0c31cbdf5333d4523fd8cb21e02407f4d3bca0.jpeg</t>
         </is>
       </c>
+      <c r="V218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -17775,6 +17997,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d6/de/9a25b20cf8690d3d9d00e2fef1ae1049e840ded6.jpeg</t>
         </is>
       </c>
+      <c r="V219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -17858,6 +18081,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/65/f9/a8ff48e4417b9b056ee10e0ef57ba89fd446f965.jpeg</t>
         </is>
       </c>
+      <c r="V220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -17941,6 +18165,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c2/ca/4f1f4587541631e8dadb96df7c096ea0f550cac2.jpeg</t>
         </is>
       </c>
+      <c r="V221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -18022,6 +18247,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e3/86/ffc125c509c7ad44975cde50e1bef3cee7f586e3.jpeg</t>
         </is>
       </c>
+      <c r="V222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -18105,6 +18331,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/f7/36/bda7093ce0f46ed252034349b96052bab02436f7.jpeg</t>
         </is>
       </c>
+      <c r="V223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -18182,6 +18409,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/eb/53/e2a6d30c1454406a6a5ca206384d54219f4953eb.jpeg</t>
         </is>
       </c>
+      <c r="V224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -18265,6 +18493,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/a3/2c/12aff3f2739351f413ccd94af27542d2b9ec2ca3.png</t>
         </is>
       </c>
+      <c r="V225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -18342,6 +18571,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/d2/ee/31c47b71f2805728e9372a1a5ee433d1046feed2.jpeg</t>
         </is>
       </c>
+      <c r="V226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -18419,6 +18649,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/25/a9/7a2a26fe5e994d699024dbee65eb8a1cb9fba925.png</t>
         </is>
       </c>
+      <c r="V227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -18496,6 +18727,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/90/2c/cd773e4e01de33d17674735b9e41fc1cd1792c90.png</t>
         </is>
       </c>
+      <c r="V228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -18579,6 +18811,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/da/9a/0b3587d89cd5fb1ed1151713558bf65afcf19ada.jpeg</t>
         </is>
       </c>
+      <c r="V229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -18656,6 +18889,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3e/37/a5ecdf0abc1089236c6761fd721e23b03a6c373e.jpeg</t>
         </is>
       </c>
+      <c r="V230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -18733,6 +18967,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/66/f9/b2d857d0d1f013ac83acaabdc37cf88c1c31f966.jpeg</t>
         </is>
       </c>
+      <c r="V231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -18810,6 +19045,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/af/ca/a0e4bf7a5295e1b0d6e01b41cccdd217f088caaf.jpeg</t>
         </is>
       </c>
+      <c r="V232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -18887,6 +19123,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/19/25/489f860d890da6605fa619ca770207d783a92519.jpeg</t>
         </is>
       </c>
+      <c r="V233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -18964,6 +19201,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8d/ca/5ae118ac3c0126ace294236e6185e1f29116ca8d.jpeg</t>
         </is>
       </c>
+      <c r="V234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -19041,6 +19279,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/4e/5e/fe9aec4b5ba6a097733f38aa2a686a4a0f6b5e4e.jpeg</t>
         </is>
       </c>
+      <c r="V235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -19118,6 +19357,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/05/54/e81abf5c94bd8f7e8bb290be088a3ebbe7245405.png</t>
         </is>
       </c>
+      <c r="V236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -19201,6 +19441,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/85/ae/9243461e0449d2b32206b1cd96f2583bdec3ae85.jpeg</t>
         </is>
       </c>
+      <c r="V237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -19276,6 +19517,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/08/d2/23e02e1f36003320eaefbe9cbe1c6bbc1730d208.jpeg</t>
         </is>
       </c>
+      <c r="V238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -19353,6 +19595,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/c5/b8/ee26517f5e01ff1bb6fea5959c800c4d4b7bb8c5.jpeg</t>
         </is>
       </c>
+      <c r="V239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -19430,6 +19673,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/69/fc/6a987ce9e94f3b62ba1fe9488c734c9c2a41fc69.jpeg</t>
         </is>
       </c>
+      <c r="V240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -19507,6 +19751,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/b7/6b/85816e5d6bd56b75bee1cff45e38e3f97ef06bb7.jpeg</t>
         </is>
       </c>
+      <c r="V241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -19584,6 +19829,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/8f/bc/db21a6f3b11a4eb82495a2f22ff5caa72399bc8f.jpeg</t>
         </is>
       </c>
+      <c r="V242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -19661,6 +19907,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/e2/d9/1c0bba3c74ab521a93bdda60e680897cab58d9e2.jpeg</t>
         </is>
       </c>
+      <c r="V243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -19738,6 +19985,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/75/13/e0a4f8e8489a0ff0d8e4c7d3a4f907f06e051375.jpeg</t>
         </is>
       </c>
+      <c r="V244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -19823,6 +20071,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/ba/23/2cf2bf7d38c995e1670cde86c75e30e4ba2323ba.jpeg</t>
         </is>
       </c>
+      <c r="V245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -19902,6 +20151,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/28/1d/ee8fefec940d5ef919b7ac3deb43db9e57061d28.jpeg</t>
         </is>
       </c>
+      <c r="V246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -19987,6 +20237,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/3f/4e/dfc3955d0540b9d4cdc4084eaafed86bb41b4e3f.jpeg</t>
         </is>
       </c>
+      <c r="V247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -20066,6 +20317,7 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/27/64/d42c8cbeb13f9753f7f17ffa10fa8821e9746427.jpeg</t>
         </is>
       </c>
+      <c r="V248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -20149,14 +20401,15 @@
           <t>https://cdn.esoft.digital/19201080/cluster/photos/29/72/38d027cc8176a4eeda72117b948bb921a3137229.jpeg</t>
         </is>
       </c>
+      <c r="V249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10056376</v>
+        <v>9822996</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://spb.etagi.com/realty/10056376</t>
+          <t>https://spb.etagi.com/realty/9822996</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -20166,7 +20419,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>other</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -20176,7 +20429,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к.3</t>
+          <t>Санкт-Петербург город, Петро-Славянка п район, Софийская улица, 108</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -20185,19 +20438,19 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>59.932626</v>
+        <v>59.813283</v>
       </c>
       <c r="I250" t="n">
-        <v>30.384311</v>
+        <v>30.459985</v>
       </c>
       <c r="J250" t="n">
-        <v>16500000</v>
+        <v>55000000</v>
       </c>
       <c r="K250" t="n">
-        <v>171875</v>
+        <v>36184.2</v>
       </c>
       <c r="L250" t="n">
-        <v>96</v>
+        <v>1520</v>
       </c>
       <c r="M250" t="inlineStr">
         <is>
@@ -20207,39 +20460,34 @@
       <c r="N250" t="b">
         <v>0</v>
       </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>Площадь Александра Невского - 1</t>
-        </is>
-      </c>
-      <c r="P250" t="n">
-        <v>20</v>
-      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr"/>
       <c r="R250" t="n">
         <v>1</v>
       </c>
       <c r="S250" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>living</t>
+          <t>detached</t>
         </is>
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
-        </is>
-      </c>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/35/55/2bc2d3267625326fe16e2e6d00417b420a3f5535.jpeg</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>9822996</v>
+        <v>10095063</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://spb.etagi.com/realty/9822996</t>
+          <t>https://spb.etagi.com/realty/10095063</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -20259,64 +20507,71 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Санкт-Петербург город, Петро-Славянка п район, Софийская улица, 108</t>
+          <t>Санкт-Петербург город, Фрунзенский район, Малая Бухарестская улица, 12 (Фрунзенский)</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Санкт Петербург</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>59.813283</v>
+        <v>59.847268</v>
       </c>
       <c r="I251" t="n">
-        <v>30.459985</v>
+        <v>30.41594</v>
       </c>
       <c r="J251" t="n">
-        <v>55000000</v>
+        <v>44400000</v>
       </c>
       <c r="K251" t="n">
-        <v>36184.2</v>
+        <v>304110</v>
       </c>
       <c r="L251" t="n">
-        <v>1520</v>
+        <v>146</v>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>23_10_2023</t>
+          <t>24_10_2023</t>
         </is>
       </c>
       <c r="N251" t="b">
         <v>0</v>
       </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Дунайская</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>18</v>
+      </c>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="n">
         <v>1</v>
       </c>
       <c r="S251" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>detached</t>
+          <t>living</t>
         </is>
       </c>
       <c r="U251" t="inlineStr">
         <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/35/55/2bc2d3267625326fe16e2e6d00417b420a3f5535.jpeg</t>
-        </is>
-      </c>
+          <t>https://cdn.esoft.digital/19201080/cluster/photos/16/2e/9cddbaf3acfe66dc1ddd0326c297bb13f67f2e16.jpeg</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>10095063</v>
+        <v>10104574</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://spb.etagi.com/realty/10095063</t>
+          <t>https://spb.etagi.com/realty/10104574</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -20326,7 +20581,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>office</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -20336,7 +20591,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Санкт-Петербург город, Фрунзенский район, Малая Бухарестская улица, 12 (Фрунзенский)</t>
+          <t>Санкт-Петербург город, Красногвардейский район, Бокситогорская улица, 27 ст.1</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -20344,30 +20599,20 @@
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>59.847268</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>30.41594</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>44400000</t>
-        </is>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>304110</t>
-        </is>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="H252" t="n">
+        <v>59.95593</v>
+      </c>
+      <c r="I252" t="n">
+        <v>30.447813</v>
+      </c>
+      <c r="J252" t="n">
+        <v>13900000</v>
+      </c>
+      <c r="K252" t="n">
+        <v>176172</v>
+      </c>
+      <c r="L252" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
@@ -20379,20 +20624,18 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Дунайская</t>
-        </is>
-      </c>
-      <c r="P252" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>Ладожская</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>40</v>
       </c>
       <c r="Q252" t="inlineStr"/>
       <c r="R252" t="n">
         <v>1</v>
       </c>
       <c r="S252" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -20401,104 +20644,10 @@
       </c>
       <c r="U252" t="inlineStr">
         <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/16/2e/9cddbaf3acfe66dc1ddd0326c297bb13f67f2e16.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>10104574</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>https://spb.etagi.com/realty/10104574</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>offices</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>office</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>sale</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург город, Красногвардейский район, Бокситогорская улица, 27 ст.1</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>59.95593</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>30.447813</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>13900000</t>
-        </is>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>176172</t>
-        </is>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>78.9</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>24_10_2023</t>
-        </is>
-      </c>
-      <c r="N253" t="b">
-        <v>0</v>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>Ладожская</t>
-        </is>
-      </c>
-      <c r="P253" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="n">
-        <v>1</v>
-      </c>
-      <c r="S253" t="n">
-        <v>22</v>
-      </c>
-      <c r="T253" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="U253" t="inlineStr">
-        <is>
           <t>https://cdn.esoft.digital/19201080/cluster/photos/da/0c/f89f8a815c858407ba43527dee00bdbce2790cda.jpeg</t>
         </is>
       </c>
+      <c r="V252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/commerce_estate/Etagi/data/Supply.xlsx
+++ b/commerce_estate/Etagi/data/Supply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V249"/>
+  <dimension ref="A1:V246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20171,274 +20171,6 @@
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>10178503</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>https://spb.etagi.com/realty/10178503</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>offices</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>torg</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>sale</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Санкт-Петербург город, Московский район, Варшавская улица, </t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H247" t="n">
-        <v>59.860012</v>
-      </c>
-      <c r="I247" t="n">
-        <v>30.314709</v>
-      </c>
-      <c r="J247" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K247" t="n">
-        <v>508475</v>
-      </c>
-      <c r="L247" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>7_11_2023</t>
-        </is>
-      </c>
-      <c r="N247" t="b">
-        <v>0</v>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>Парк Победы</t>
-        </is>
-      </c>
-      <c r="P247" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="n">
-        <v>1</v>
-      </c>
-      <c r="S247" t="n">
-        <v>5</v>
-      </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="U247" t="inlineStr">
-        <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/97/83/e46965235c97665434db9ccc0a85a282fa348397.jpeg</t>
-        </is>
-      </c>
-      <c r="V247" t="inlineStr">
-        <is>
-          <t>Московский</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>10056376</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>https://spb.etagi.com/realty/10056376</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>offices</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>office</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>sale</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург город, Центральный район, Старорусская улица, 5к</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H248" t="n">
-        <v>59.932626</v>
-      </c>
-      <c r="I248" t="n">
-        <v>30.384311</v>
-      </c>
-      <c r="J248" t="n">
-        <v>16500000</v>
-      </c>
-      <c r="K248" t="n">
-        <v>171875</v>
-      </c>
-      <c r="L248" t="n">
-        <v>96</v>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>8_11_2023</t>
-        </is>
-      </c>
-      <c r="N248" t="b">
-        <v>0</v>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>Площадь Александра Невского - 1</t>
-        </is>
-      </c>
-      <c r="P248" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="n">
-        <v>1</v>
-      </c>
-      <c r="S248" t="n">
-        <v>6</v>
-      </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="U248" t="inlineStr">
-        <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/64/82/949abfe91827b638223aaa1a36005f513d608264.jpeg</t>
-        </is>
-      </c>
-      <c r="V248" t="inlineStr">
-        <is>
-          <t>Центральный</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>10191632</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>https://spb.etagi.com/realty/10191632</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>offices</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>office</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>sale</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Санкт-Петербург город, Московский район, Алтайская улица, </t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>59.84979</t>
-        </is>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>30.333852</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>1600000</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>114286</t>
-        </is>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>9_11_2023</t>
-        </is>
-      </c>
-      <c r="N249" t="b">
-        <v>0</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="n">
-        <v>1</v>
-      </c>
-      <c r="S249" t="n">
-        <v>5</v>
-      </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>living</t>
-        </is>
-      </c>
-      <c r="U249" t="inlineStr">
-        <is>
-          <t>https://cdn.esoft.digital/19201080/cluster/photos/26/67/2895dbcb901aa98e3e51a45e3bfde52e59526726.jpeg</t>
-        </is>
-      </c>
-      <c r="V249" t="inlineStr">
-        <is>
-          <t>Московский</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
